--- a/fuction_ensemble_1/redes-ensemble-s/mse_sup/25_model_31_9_16.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/mse_sup/25_model_31_9_16.xlsx
@@ -480,7 +480,7 @@
         <v>1.904544178635538</v>
       </c>
       <c r="D3" t="n">
-        <v>1.917602777481079</v>
+        <v>1.91760265827179</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +522,7 @@
         <v>2.560174814827988</v>
       </c>
       <c r="D6" t="n">
-        <v>2.513709306716919</v>
+        <v>2.513709545135498</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         <v>1.521226903575671</v>
       </c>
       <c r="D7" t="n">
-        <v>1.515643954277039</v>
+        <v>1.515644073486328</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>1.666602084301417</v>
       </c>
       <c r="D8" t="n">
-        <v>1.665226817131042</v>
+        <v>1.665226936340332</v>
       </c>
     </row>
     <row r="9">
@@ -606,7 +606,7 @@
         <v>2.816739155750824</v>
       </c>
       <c r="D12" t="n">
-        <v>2.797117233276367</v>
+        <v>2.797116994857788</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>2.96211433647657</v>
       </c>
       <c r="D13" t="n">
-        <v>2.947827100753784</v>
+        <v>2.947827339172363</v>
       </c>
     </row>
     <row r="14">
@@ -634,7 +634,7 @@
         <v>2.000635365784534</v>
       </c>
       <c r="D14" t="n">
-        <v>1.995265364646912</v>
+        <v>1.995265483856201</v>
       </c>
     </row>
     <row r="15">
@@ -648,7 +648,7 @@
         <v>1.752686319765095</v>
       </c>
       <c r="D15" t="n">
-        <v>1.742282629013062</v>
+        <v>1.742282867431641</v>
       </c>
     </row>
     <row r="16">
@@ -774,7 +774,7 @@
         <v>1.657512896333784</v>
       </c>
       <c r="D24" t="n">
-        <v>1.663182616233826</v>
+        <v>1.663182497024536</v>
       </c>
     </row>
     <row r="25">
